--- a/trunk/Analisis/Sprint2_Ejemplo.xlsx
+++ b/trunk/Analisis/Sprint2_Ejemplo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="US- CAJA-030" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>desde</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Fecha Sistema o fecha en que se hace EM</t>
+  </si>
+  <si>
+    <t>CAT. 2</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,6 +224,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,13 +241,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>9522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -252,8 +256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="123826" y="1514475"/>
-          <a:ext cx="400050" cy="11315700"/>
+          <a:off x="123826" y="1343022"/>
+          <a:ext cx="400050" cy="11229977"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -639,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1044,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1100,8 +1104,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
-        <v>0</v>
+      <c r="A8" s="21">
+        <v>1</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="9">
@@ -1113,8 +1117,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
-        <v>1</v>
+      <c r="A9" s="21">
+        <v>2</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="1">
@@ -1122,8 +1126,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2</v>
+      <c r="A10" s="21">
+        <v>3</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="1">
@@ -1131,8 +1135,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
-        <v>3</v>
+      <c r="A11" s="21">
+        <v>4</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="1">
@@ -1140,8 +1144,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
-        <v>4</v>
+      <c r="A12" s="21">
+        <v>5</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="1">
@@ -1149,8 +1153,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
-        <v>5</v>
+      <c r="A13" s="21">
+        <v>6</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="1">
@@ -1158,8 +1162,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
-        <v>6</v>
+      <c r="A14" s="21">
+        <v>7</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="1">
@@ -1167,8 +1171,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
-        <v>7</v>
+      <c r="A15" s="21">
+        <v>8</v>
       </c>
       <c r="B15" s="19">
         <v>2010</v>
@@ -1178,8 +1182,8 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
-        <v>8</v>
+      <c r="A16" s="21">
+        <v>9</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="1">
@@ -1187,8 +1191,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
-        <v>9</v>
+      <c r="A17" s="21">
+        <v>10</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="1">
@@ -1196,8 +1200,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
-        <v>10</v>
+      <c r="A18" s="21">
+        <v>11</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="1">
@@ -1205,8 +1209,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
-        <v>11</v>
+      <c r="A19" s="21">
+        <v>12</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="1">
@@ -1214,8 +1218,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
-        <v>12</v>
+      <c r="A20" s="21">
+        <v>13</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="1">
@@ -1223,8 +1227,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
-        <v>13</v>
+      <c r="A21" s="21">
+        <v>14</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="1">
@@ -1232,8 +1236,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
-        <v>14</v>
+      <c r="A22" s="21">
+        <v>15</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="1">
@@ -1241,8 +1245,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
-        <v>15</v>
+      <c r="A23" s="21">
+        <v>16</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="1">
@@ -1250,8 +1254,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
-        <v>16</v>
+      <c r="A24" s="21">
+        <v>17</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="1">
@@ -1259,8 +1263,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
-        <v>17</v>
+      <c r="A25" s="21">
+        <v>18</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="1">
@@ -1268,8 +1272,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
-        <v>18</v>
+      <c r="A26" s="21">
+        <v>19</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="1">
@@ -1277,8 +1281,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
-        <v>19</v>
+      <c r="A27" s="21">
+        <v>20</v>
       </c>
       <c r="B27" s="19">
         <v>2011</v>
@@ -1288,8 +1292,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
-        <v>20</v>
+      <c r="A28" s="21">
+        <v>21</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="1">
@@ -1297,8 +1301,8 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
-        <v>21</v>
+      <c r="A29" s="21">
+        <v>22</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="1">
@@ -1306,8 +1310,8 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
-        <v>22</v>
+      <c r="A30" s="21">
+        <v>23</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="1">
@@ -1315,8 +1319,8 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
-        <v>23</v>
+      <c r="A31" s="21">
+        <v>24</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="1">
@@ -1324,8 +1328,8 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
-        <v>24</v>
+      <c r="A32" s="21">
+        <v>25</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="1">
@@ -1333,8 +1337,8 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33">
-        <v>25</v>
+      <c r="A33" s="21">
+        <v>26</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="1">
@@ -1342,8 +1346,8 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34">
-        <v>26</v>
+      <c r="A34" s="21">
+        <v>27</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="1">
@@ -1351,8 +1355,8 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35">
-        <v>27</v>
+      <c r="A35" s="21">
+        <v>28</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="1">
@@ -1360,8 +1364,8 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36">
-        <v>28</v>
+      <c r="A36" s="21">
+        <v>29</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="1">
@@ -1369,8 +1373,8 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37">
-        <v>29</v>
+      <c r="A37" s="21">
+        <v>30</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="1">
@@ -1379,8 +1383,8 @@
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38">
-        <v>30</v>
+      <c r="A38" s="21">
+        <v>31</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="1">
@@ -1388,8 +1392,8 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39">
-        <v>31</v>
+      <c r="A39" s="21">
+        <v>32</v>
       </c>
       <c r="B39" s="19">
         <v>2012</v>
@@ -1399,8 +1403,8 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40">
-        <v>32</v>
+      <c r="A40" s="21">
+        <v>33</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="1">
@@ -1408,8 +1412,8 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41">
-        <v>33</v>
+      <c r="A41" s="21">
+        <v>34</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="1">
@@ -1417,8 +1421,8 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42">
-        <v>34</v>
+      <c r="A42" s="21">
+        <v>35</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="1">
@@ -1426,8 +1430,8 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43">
-        <v>35</v>
+      <c r="A43" s="21">
+        <v>36</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="1">
@@ -1435,8 +1439,8 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44">
-        <v>36</v>
+      <c r="A44" s="21">
+        <v>37</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="1">
@@ -1444,8 +1448,8 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45">
-        <v>37</v>
+      <c r="A45" s="21">
+        <v>38</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="1">
@@ -1453,8 +1457,8 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46">
-        <v>38</v>
+      <c r="A46" s="21">
+        <v>39</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="1">
@@ -1462,8 +1466,8 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47">
-        <v>39</v>
+      <c r="A47" s="21">
+        <v>40</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="1">
@@ -1471,8 +1475,8 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48">
-        <v>40</v>
+      <c r="A48" s="21">
+        <v>41</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="1">
@@ -1480,8 +1484,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
-        <v>41</v>
+      <c r="A49" s="21">
+        <v>42</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="1">
@@ -1489,8 +1493,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
-        <v>42</v>
+      <c r="A50" s="21">
+        <v>43</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="1">
@@ -1498,8 +1502,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
-        <v>43</v>
+      <c r="A51" s="21">
+        <v>44</v>
       </c>
       <c r="B51" s="19">
         <v>2013</v>
@@ -1509,8 +1513,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
-        <v>44</v>
+      <c r="A52" s="21">
+        <v>45</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="1">
@@ -1518,8 +1522,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
-        <v>45</v>
+      <c r="A53" s="21">
+        <v>46</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="1">
@@ -1527,8 +1531,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
-        <v>46</v>
+      <c r="A54" s="21">
+        <v>47</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="1">
@@ -1536,8 +1540,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
-        <v>47</v>
+      <c r="A55" s="21">
+        <v>48</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="1">
@@ -1545,8 +1549,8 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56">
-        <v>48</v>
+      <c r="A56" s="21">
+        <v>49</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="1">
@@ -1554,8 +1558,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
-        <v>49</v>
+      <c r="A57" s="21">
+        <v>50</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="1">
@@ -1563,8 +1567,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58">
-        <v>50</v>
+      <c r="A58" s="21">
+        <v>51</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="1">
@@ -1572,8 +1576,8 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59">
-        <v>51</v>
+      <c r="A59" s="21">
+        <v>52</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="1">
@@ -1581,8 +1585,8 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60">
-        <v>52</v>
+      <c r="A60" s="21">
+        <v>53</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="1">
@@ -1590,8 +1594,8 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61">
-        <v>53</v>
+      <c r="A61" s="21">
+        <v>54</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="1">
@@ -1599,8 +1603,8 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
-        <v>54</v>
+      <c r="A62" s="21">
+        <v>55</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="1">
@@ -1608,8 +1612,8 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63">
-        <v>55</v>
+      <c r="A63" s="21">
+        <v>56</v>
       </c>
       <c r="B63" s="19">
         <v>2014</v>
@@ -1625,8 +1629,8 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64">
-        <v>56</v>
+      <c r="A64" s="21">
+        <v>57</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="8">
@@ -1637,8 +1641,8 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65">
-        <v>57</v>
+      <c r="A65" s="21">
+        <v>58</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="8">
@@ -1649,8 +1653,8 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66">
-        <v>58</v>
+      <c r="A66" s="21">
+        <v>59</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="8">
@@ -1661,8 +1665,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67">
-        <v>59</v>
+      <c r="A67" s="10">
+        <v>60</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="8">
@@ -1673,21 +1677,16 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="10">
-        <v>60</v>
-      </c>
+      <c r="A68" s="21"/>
       <c r="B68" s="19"/>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>6</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>8</v>
+      <c r="D68" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69">
-        <v>61</v>
-      </c>
       <c r="B69" s="19"/>
       <c r="C69" s="7">
         <v>7</v>
@@ -1697,9 +1696,6 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70">
-        <v>62</v>
-      </c>
       <c r="B70" s="19"/>
       <c r="C70" s="7">
         <v>8</v>
@@ -1709,9 +1705,6 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71">
-        <v>63</v>
-      </c>
       <c r="B71" s="19"/>
       <c r="C71" s="7">
         <v>9</v>
@@ -1721,9 +1714,6 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72">
-        <v>64</v>
-      </c>
       <c r="B72" s="19"/>
       <c r="C72" s="7">
         <v>10</v>
@@ -1733,9 +1723,6 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73">
-        <v>65</v>
-      </c>
       <c r="B73" s="19"/>
       <c r="C73" s="7">
         <v>11</v>
@@ -1745,9 +1732,6 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74">
-        <v>66</v>
-      </c>
       <c r="B74" s="19"/>
       <c r="C74" s="7">
         <v>12</v>
@@ -1757,9 +1741,6 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75">
-        <v>67</v>
-      </c>
       <c r="B75" s="19">
         <v>2015</v>
       </c>
@@ -1771,9 +1752,6 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76">
-        <v>68</v>
-      </c>
       <c r="B76" s="19"/>
       <c r="C76" s="7">
         <v>2</v>

--- a/trunk/Analisis/Sprint2_Ejemplo.xlsx
+++ b/trunk/Analisis/Sprint2_Ejemplo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="US- CAJA-030" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
-  <si>
-    <t>desde</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Dia</t>
   </si>
@@ -28,9 +25,6 @@
   </si>
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>hasta</t>
   </si>
   <si>
     <t xml:space="preserve">Dia </t>
@@ -62,12 +56,18 @@
   <si>
     <t>CAT. 2</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Fecha desde</t>
+  </si>
+  <si>
+    <t>Fecha hasta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +83,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +125,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,13 +217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -206,35 +234,777 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1347998" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="1 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3314700"/>
+          <a:ext cx="1347998" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Valor fijo.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> Siempre 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1527662" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3543300"/>
+          <a:ext cx="1527662" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Ultimo dia de cada mes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1631472" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="3924300"/>
+          <a:ext cx="1631472" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Calculado.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> Mes de EM - 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990784" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="3305175"/>
+          <a:ext cx="990784" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Calculado:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Año de EM - 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="828175" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="5 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="3581400"/>
+          <a:ext cx="828175" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Calculado:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Mes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> de EM</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990784" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="6 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="3162300"/>
+          <a:ext cx="990784" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Calculado:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Año de EM - 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812353</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>389990</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="7 Flecha derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19215152">
+          <a:off x="2126803" y="2844271"/>
+          <a:ext cx="749212" cy="242701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>115994</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350628</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="8 Flecha derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16817360">
+          <a:off x="2862364" y="3153778"/>
+          <a:ext cx="1237943" cy="234634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319932</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419103</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>29231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="9 Flecha derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4093464" y="2932067"/>
+          <a:ext cx="572157" cy="99171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514353</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>48282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="10 Flecha derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4819324" y="3010227"/>
+          <a:ext cx="734082" cy="200027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>394247</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>697174</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="11 Flecha derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13363304">
+          <a:off x="5928272" y="3014448"/>
+          <a:ext cx="1064927" cy="186415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>394247</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>697174</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="13 Flecha derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12587352">
+          <a:off x="6690272" y="2919200"/>
+          <a:ext cx="1064927" cy="186415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -643,404 +1413,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" ref="D4:D7" si="0">A4-2</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E7" si="1">B4-5</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="22">
+        <v>31</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G7" si="2">A4</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H7" si="3">B4-5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="22">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="22">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="22">
+        <v>12</v>
+      </c>
+      <c r="B7" s="22">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="22">
+        <v>31</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" ref="D8:D14" si="4">A8-2</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" ref="E8:E14" si="5">B8-5</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="22">
+        <v>31</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" ref="G8:G14" si="6">A8</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" ref="H8:H14" si="7">B8-5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B9" s="12">
+        <v>15</v>
+      </c>
+      <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4" si="0">B4-2</f>
-        <v>-1</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4" si="1">C4-5</f>
-        <v>9</v>
-      </c>
-      <c r="G4" s="6">
-        <v>31</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" ref="H4" si="2">B4</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4" si="3">C4-5</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6">
-        <v>31</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6">
-        <v>31</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6">
-        <v>31</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" ref="E9:E15" si="4">B9-2</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" ref="F9:F15" si="5">C9-5</f>
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>31</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" ref="H9:H15" si="6">B9</f>
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" ref="I9:I15" si="7">C9-5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D9" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="E9" s="22">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="F9" s="22">
         <v>31</v>
       </c>
-      <c r="H10" s="3">
+      <c r="G9" s="22">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I10" s="3">
+      <c r="H9" s="22">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
+    <row r="10" spans="1:9">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="B10" s="12">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="D10" s="22">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E10" s="22">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="F10" s="22">
         <v>31</v>
       </c>
-      <c r="H11" s="3">
+      <c r="G10" s="22">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I11" s="3">
+      <c r="H10" s="22">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
+    <row r="11" spans="1:9">
+      <c r="A11" s="12">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="B11" s="12">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="D11" s="22">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="E11" s="22">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="F11" s="22">
         <v>31</v>
       </c>
-      <c r="H12" s="3">
+      <c r="G11" s="22">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="I12" s="3">
+      <c r="H11" s="22">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
+    <row r="12" spans="1:9">
+      <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="B12" s="12">
         <v>16</v>
       </c>
-      <c r="D13">
+      <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="D12" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="E12" s="22">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G13">
+      <c r="F12" s="22">
         <v>31</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G12" s="22">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="H12" s="22">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14">
+    <row r="13" spans="1:9">
+      <c r="A13" s="12">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="B13" s="12">
         <v>16</v>
       </c>
-      <c r="D14">
+      <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="D13" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F14" s="4">
+      <c r="E13" s="22">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G14">
+      <c r="F13" s="22">
         <v>31</v>
       </c>
-      <c r="H14" s="4">
+      <c r="G13" s="22">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I14" s="4">
+      <c r="H13" s="22">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15">
+    <row r="14" spans="1:9">
+      <c r="A14" s="12">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="B14" s="12">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="D14" s="22">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F15" s="4">
+      <c r="E14" s="22">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="F14" s="22">
         <v>31</v>
       </c>
-      <c r="H15" s="4">
+      <c r="G14" s="22">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I15" s="4">
+      <c r="H14" s="22">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
     <row r="16" spans="1:9">
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1048,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -1058,21 +1847,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="20"/>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>6</v>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>2009</v>
       </c>
       <c r="C3" s="1">
@@ -1080,101 +1869,101 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="19"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="19"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="19"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="19"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="21">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="9">
+      <c r="B8" s="14"/>
+      <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="14" t="s">
-        <v>12</v>
+      <c r="D8" s="2"/>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="21">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="21">
+      <c r="A10" s="13">
         <v>3</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="21">
+      <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="21">
+      <c r="A12" s="13">
         <v>5</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="21">
+      <c r="A13" s="13">
         <v>6</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="21">
+      <c r="A14" s="13">
         <v>7</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="21">
+      <c r="A15" s="13">
         <v>8</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="14">
         <v>2010</v>
       </c>
       <c r="C15" s="1">
@@ -1182,109 +1971,109 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="21">
+      <c r="A16" s="13">
         <v>9</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="21">
+      <c r="A17" s="13">
         <v>10</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="21">
+      <c r="A18" s="13">
         <v>11</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="21">
+      <c r="A19" s="13">
         <v>12</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="21">
+      <c r="A20" s="13">
         <v>13</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="21">
+      <c r="A21" s="13">
         <v>14</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="21">
+      <c r="A22" s="13">
         <v>15</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="21">
+      <c r="A23" s="13">
         <v>16</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="21">
+      <c r="A24" s="13">
         <v>17</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="21">
+      <c r="A25" s="13">
         <v>18</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="21">
+      <c r="A26" s="13">
         <v>19</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="21">
+      <c r="A27" s="13">
         <v>20</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="14">
         <v>2011</v>
       </c>
       <c r="C27" s="1">
@@ -1292,110 +2081,110 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="21">
+      <c r="A28" s="13">
         <v>21</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="21">
+      <c r="A29" s="13">
         <v>22</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="21">
+      <c r="A30" s="13">
         <v>23</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="21">
+      <c r="A31" s="13">
         <v>24</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="21">
+      <c r="A32" s="13">
         <v>25</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="21">
+      <c r="A33" s="13">
         <v>26</v>
       </c>
-      <c r="B33" s="19"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21">
+      <c r="A34" s="13">
         <v>27</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21">
+      <c r="A35" s="13">
         <v>28</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21">
+      <c r="A36" s="13">
         <v>29</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21">
+      <c r="A37" s="13">
         <v>30</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="1">
         <v>11</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21">
+      <c r="A38" s="13">
         <v>31</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="21">
+      <c r="A39" s="13">
         <v>32</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="14">
         <v>2012</v>
       </c>
       <c r="C39" s="1">
@@ -1403,109 +2192,109 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="21">
+      <c r="A40" s="13">
         <v>33</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="21">
+      <c r="A41" s="13">
         <v>34</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="21">
+      <c r="A42" s="13">
         <v>35</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="21">
+      <c r="A43" s="13">
         <v>36</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="21">
+      <c r="A44" s="13">
         <v>37</v>
       </c>
-      <c r="B44" s="19"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="21">
+      <c r="A45" s="13">
         <v>38</v>
       </c>
-      <c r="B45" s="19"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="21">
+      <c r="A46" s="13">
         <v>39</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="21">
+      <c r="A47" s="13">
         <v>40</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="21">
+      <c r="A48" s="13">
         <v>41</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="21">
+      <c r="A49" s="13">
         <v>42</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="21">
+      <c r="A50" s="13">
         <v>43</v>
       </c>
-      <c r="B50" s="19"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="21">
+      <c r="A51" s="13">
         <v>44</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="14">
         <v>2013</v>
       </c>
       <c r="C51" s="1">
@@ -1513,309 +2302,309 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="21">
+      <c r="A52" s="13">
         <v>45</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="21">
+      <c r="A53" s="13">
         <v>46</v>
       </c>
-      <c r="B53" s="19"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="21">
+      <c r="A54" s="13">
         <v>47</v>
       </c>
-      <c r="B54" s="19"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="21">
+      <c r="A55" s="13">
         <v>48</v>
       </c>
-      <c r="B55" s="19"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="21">
+      <c r="A56" s="13">
         <v>49</v>
       </c>
-      <c r="B56" s="19"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="21">
+      <c r="A57" s="13">
         <v>50</v>
       </c>
-      <c r="B57" s="19"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="21">
+      <c r="A58" s="13">
         <v>51</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="21">
+      <c r="A59" s="13">
         <v>52</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="21">
+      <c r="A60" s="13">
         <v>53</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="21">
+      <c r="A61" s="13">
         <v>54</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="21">
+      <c r="A62" s="13">
         <v>55</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="21">
+      <c r="A63" s="13">
         <v>56</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="14">
         <v>2014</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="5">
         <v>1</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="3" t="s">
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="13">
+        <v>57</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="13">
+        <v>58</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="5">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="13">
+        <v>59</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="5">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="7">
+        <v>60</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="5">
+        <v>5</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="4">
+        <v>6</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" s="14"/>
+      <c r="C69" s="4">
+        <v>7</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" s="14"/>
+      <c r="C70" s="4">
+        <v>8</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" s="14"/>
+      <c r="C71" s="4">
+        <v>9</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" s="14"/>
+      <c r="C72" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="21">
-        <v>57</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="8">
+      <c r="D72" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" s="14"/>
+      <c r="C73" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" s="14"/>
+      <c r="C74" s="4">
+        <v>12</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" s="14">
+        <v>2015</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" s="14"/>
+      <c r="C76" s="4">
         <v>2</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="21">
-        <v>58</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="8">
-        <v>3</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="21">
-        <v>59</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="8">
-        <v>4</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="10">
-        <v>60</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="8">
-        <v>5</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="21"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="7">
-        <v>6</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="B69" s="19"/>
-      <c r="C69" s="7">
+      <c r="D76" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="B70" s="19"/>
-      <c r="C70" s="7">
-        <v>8</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="B71" s="19"/>
-      <c r="C71" s="7">
-        <v>9</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="B72" s="19"/>
-      <c r="C72" s="7">
-        <v>10</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="B73" s="19"/>
-      <c r="C73" s="7">
-        <v>11</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="B74" s="19"/>
-      <c r="C74" s="7">
-        <v>12</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="B75" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C75" s="7">
-        <v>1</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="B76" s="19"/>
-      <c r="C76" s="7">
-        <v>2</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="B77" s="19"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="B78" s="19"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="B79" s="19"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="B80" s="19"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="19"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="19"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="19"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="19"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="19"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="19"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="1">
         <v>12</v>
       </c>
